--- a/HuggingFace/result/convNext/val_conf_ConvNext_L_aug_b_p4_r224_e1.xlsx
+++ b/HuggingFace/result/convNext/val_conf_ConvNext_L_aug_b_p4_r224_e1.xlsx
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8740619147400254</v>
+        <v>0.9191571171175263</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8951582157834541</v>
+        <v>0.9260388867708731</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8544714703002434</v>
+        <v>0.9010194204341407</v>
       </c>
     </row>
   </sheetData>
@@ -549,34 +549,34 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.9078341013824884</v>
+        <v>0.9547511312217195</v>
       </c>
       <c r="C2">
-        <v>0.8942731277533039</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="D2">
-        <v>0.7081545064377682</v>
+        <v>0.7698744769874477</v>
       </c>
       <c r="E2">
-        <v>0.9318181818181818</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="F2">
-        <v>0.7654320987654321</v>
+        <v>0.8427672955974843</v>
       </c>
       <c r="G2">
-        <v>0.9199711607786589</v>
+        <v>0.9348298334540188</v>
       </c>
       <c r="H2">
-        <v>0.9909502262443439</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.8951582157834541</v>
+        <v>0.9260388867708731</v>
       </c>
       <c r="J2">
-        <v>0.8740619147400254</v>
+        <v>0.9191571171175263</v>
       </c>
       <c r="K2">
-        <v>0.8928048866270583</v>
+        <v>0.9250557306554767</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -584,34 +584,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8995433789954338</v>
+        <v>0.9634703196347032</v>
       </c>
       <c r="C3">
-        <v>0.9269406392694064</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="D3">
-        <v>0.7534246575342466</v>
+        <v>0.8401826484018264</v>
       </c>
       <c r="E3">
-        <v>0.8913043478260869</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="F3">
-        <v>0.5585585585585585</v>
+        <v>0.6036036036036037</v>
       </c>
       <c r="G3">
-        <v>0.9515287099179717</v>
+        <v>0.9627143922445935</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.8951582157834541</v>
+        <v>0.9260388867708731</v>
       </c>
       <c r="J3">
-        <v>0.8544714703002434</v>
+        <v>0.9010194204341407</v>
       </c>
       <c r="K3">
-        <v>0.8951582157834541</v>
+        <v>0.9260388867708731</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -619,34 +619,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.9036697247706422</v>
+        <v>0.959090909090909</v>
       </c>
       <c r="C4">
-        <v>0.9103139013452914</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="D4">
-        <v>0.7300884955752213</v>
+        <v>0.8034934497816594</v>
       </c>
       <c r="E4">
-        <v>0.9111111111111111</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="F4">
-        <v>0.6458333333333333</v>
+        <v>0.7034120734908137</v>
       </c>
       <c r="G4">
-        <v>0.935483870967742</v>
+        <v>0.9485672299779574</v>
       </c>
       <c r="H4">
-        <v>0.9954545454545455</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0.8951582157834541</v>
+        <v>0.9260388867708731</v>
       </c>
       <c r="J4">
-        <v>0.8617078546511266</v>
+        <v>0.9070110754325631</v>
       </c>
       <c r="K4">
-        <v>0.8923597619203563</v>
+        <v>0.9236386982197655</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +675,7 @@
         <v>219</v>
       </c>
       <c r="I5">
-        <v>0.8951582157834541</v>
+        <v>0.9260388867708731</v>
       </c>
       <c r="J5">
         <v>2623</v>
